--- a/sputnik/personal/cel/cel999.xlsx
+++ b/sputnik/personal/cel/cel999.xlsx
@@ -27,9 +27,6 @@
     <t>Наименование</t>
   </si>
   <si>
-    <t>Начислен целевой взнос на ремонт дорог на территории СНТ</t>
-  </si>
-  <si>
     <t xml:space="preserve">Начислен целевой взнос на освещение центральной дороги </t>
   </si>
   <si>
@@ -52,6 +49,9 @@
   </si>
   <si>
     <t>Оплачен целевой взнос на приобретение мини трактора</t>
+  </si>
+  <si>
+    <t>Начислен целевой взнос на ремонт дорог на территории СНТ1</t>
   </si>
 </sst>
 </file>
@@ -517,7 +517,7 @@
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -532,7 +532,7 @@
     <row r="1" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:4" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B2" s="9" t="s">
         <v>2</v>
@@ -549,7 +549,7 @@
         <v>43466</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C3" s="6">
         <v>500</v>
@@ -561,7 +561,7 @@
         <v>43466</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C4" s="6">
         <v>200</v>
@@ -573,7 +573,7 @@
         <v>43586</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C5" s="7">
         <v>431</v>
@@ -585,7 +585,7 @@
         <v>43586</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C6" s="12">
         <v>1449</v>
@@ -597,7 +597,7 @@
         <v>43635</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C7" s="11"/>
       <c r="D7" s="6">
@@ -609,7 +609,7 @@
         <v>43635</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C8" s="11"/>
       <c r="D8" s="6">
@@ -621,7 +621,7 @@
         <v>43635</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C9" s="11"/>
       <c r="D9" s="7">
@@ -633,7 +633,7 @@
         <v>43635</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C10" s="11"/>
       <c r="D10" s="12">

--- a/sputnik/personal/cel/cel999.xlsx
+++ b/sputnik/personal/cel/cel999.xlsx
@@ -51,7 +51,7 @@
     <t>Оплачен целевой взнос на приобретение мини трактора</t>
   </si>
   <si>
-    <t>Начислен целевой взнос на ремонт дорог на территории СНТ1</t>
+    <t>Начислен целевой взнос на ремонт дорог на территории СНТ2</t>
   </si>
 </sst>
 </file>
@@ -517,7 +517,7 @@
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>

--- a/sputnik/personal/cel/cel999.xlsx
+++ b/sputnik/personal/cel/cel999.xlsx
@@ -517,7 +517,7 @@
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -552,7 +552,7 @@
         <v>11</v>
       </c>
       <c r="C3" s="6">
-        <v>500</v>
+        <v>500.3</v>
       </c>
       <c r="D3" s="6"/>
     </row>
